--- a/result_7_2_3.xlsx
+++ b/result_7_2_3.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24332"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10916"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\WuhuangYao\Desktop\MTSan\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/wuhuangyao/MTSan/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8F64D344-3C8D-4855-9809-2C3023BC55BC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9ED5451B-3C01-234A-AAB2-6EA8B3E86CC0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="13900" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="25820" windowHeight="16400" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -314,15 +314,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
@@ -333,38 +330,23 @@
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="2">
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFF4B084"/>
-          <bgColor rgb="FF000000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFF4B084"/>
-          <bgColor rgb="FF000000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-  </dxfs>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -642,44 +624,44 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Q87"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A55" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="M71" sqref="M71"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="Q3" sqref="Q3:Q29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="16.54296875" customWidth="1"/>
-    <col min="2" max="2" width="6.453125" customWidth="1"/>
+    <col min="1" max="1" width="16.5" customWidth="1"/>
+    <col min="2" max="2" width="6.5" customWidth="1"/>
     <col min="6" max="6" width="10" customWidth="1"/>
-    <col min="11" max="11" width="13.26953125" customWidth="1"/>
-    <col min="12" max="12" width="12.54296875" customWidth="1"/>
-    <col min="13" max="13" width="12.90625" customWidth="1"/>
-    <col min="14" max="14" width="12.26953125" customWidth="1"/>
-    <col min="15" max="16" width="12.453125" customWidth="1"/>
-    <col min="17" max="17" width="19.81640625" customWidth="1"/>
+    <col min="11" max="11" width="13.33203125" customWidth="1"/>
+    <col min="12" max="12" width="12.5" customWidth="1"/>
+    <col min="13" max="13" width="12.83203125" customWidth="1"/>
+    <col min="14" max="14" width="12.33203125" customWidth="1"/>
+    <col min="15" max="16" width="12.5" customWidth="1"/>
+    <col min="17" max="17" width="19.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A1" s="3" t="s">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A1" s="20" t="s">
         <v>45</v>
       </c>
-      <c r="B1" s="3"/>
-      <c r="C1" s="3"/>
-      <c r="D1" s="3"/>
-      <c r="E1" s="3"/>
-      <c r="F1" s="3"/>
-      <c r="G1" s="3"/>
-      <c r="H1" s="3"/>
-      <c r="I1" s="3"/>
-      <c r="J1" s="3"/>
-      <c r="K1" s="3"/>
-      <c r="L1" s="3"/>
-      <c r="M1" s="3"/>
-      <c r="N1" s="3"/>
-      <c r="O1" s="3"/>
-      <c r="P1" s="3"/>
-    </row>
-    <row r="2" spans="1:17" ht="44" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B1" s="20"/>
+      <c r="C1" s="20"/>
+      <c r="D1" s="20"/>
+      <c r="E1" s="20"/>
+      <c r="F1" s="20"/>
+      <c r="G1" s="20"/>
+      <c r="H1" s="20"/>
+      <c r="I1" s="20"/>
+      <c r="J1" s="20"/>
+      <c r="K1" s="20"/>
+      <c r="L1" s="20"/>
+      <c r="M1" s="20"/>
+      <c r="N1" s="20"/>
+      <c r="O1" s="20"/>
+      <c r="P1" s="20"/>
+    </row>
+    <row r="2" spans="1:17" ht="33" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>30</v>
       </c>
@@ -732,29 +714,29 @@
         <v>47</v>
       </c>
     </row>
-    <row r="3" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A3" s="15" t="s">
+    <row r="3" spans="1:17" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="B3" s="16" t="s">
-        <v>1</v>
-      </c>
-      <c r="C3" s="16">
+      <c r="B3" s="14" t="s">
+        <v>1</v>
+      </c>
+      <c r="C3" s="14">
         <v>489</v>
       </c>
-      <c r="D3" s="17">
-        <v>0</v>
-      </c>
-      <c r="E3" s="17">
-        <v>0</v>
-      </c>
-      <c r="F3" s="17">
-        <v>0</v>
-      </c>
-      <c r="G3" s="18">
+      <c r="D3" s="15">
+        <v>0</v>
+      </c>
+      <c r="E3" s="15">
+        <v>0</v>
+      </c>
+      <c r="F3" s="15">
+        <v>0</v>
+      </c>
+      <c r="G3" s="16">
         <v>489</v>
       </c>
-      <c r="H3" s="19">
+      <c r="H3" s="17">
         <v>1</v>
       </c>
       <c r="I3">
@@ -781,11 +763,11 @@
       <c r="P3">
         <v>449</v>
       </c>
-      <c r="Q3" s="14" t="s">
+      <c r="Q3" s="19" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>4</v>
       </c>
@@ -795,19 +777,19 @@
       <c r="C4">
         <v>400</v>
       </c>
-      <c r="D4" s="7">
-        <v>0</v>
-      </c>
-      <c r="E4" s="7">
-        <v>0</v>
-      </c>
-      <c r="F4" s="7">
-        <v>0</v>
-      </c>
-      <c r="G4" s="8">
+      <c r="D4" s="6">
+        <v>0</v>
+      </c>
+      <c r="E4" s="6">
+        <v>0</v>
+      </c>
+      <c r="F4" s="6">
+        <v>0</v>
+      </c>
+      <c r="G4" s="7">
         <v>400</v>
       </c>
-      <c r="H4" s="12">
+      <c r="H4" s="11">
         <v>2</v>
       </c>
       <c r="I4">
@@ -834,9 +816,9 @@
       <c r="P4">
         <v>400</v>
       </c>
-      <c r="Q4" s="14"/>
-    </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="Q4" s="19"/>
+    </row>
+    <row r="5" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>8</v>
       </c>
@@ -846,19 +828,19 @@
       <c r="C5">
         <v>627</v>
       </c>
-      <c r="D5" s="7">
-        <v>0</v>
-      </c>
-      <c r="E5" s="7">
-        <v>0</v>
-      </c>
-      <c r="F5" s="7">
-        <v>0</v>
-      </c>
-      <c r="G5" s="8">
+      <c r="D5" s="6">
+        <v>0</v>
+      </c>
+      <c r="E5" s="6">
+        <v>0</v>
+      </c>
+      <c r="F5" s="6">
+        <v>0</v>
+      </c>
+      <c r="G5" s="7">
         <v>262</v>
       </c>
-      <c r="H5" s="12">
+      <c r="H5" s="11">
         <v>3</v>
       </c>
       <c r="I5">
@@ -885,9 +867,9 @@
       <c r="P5">
         <v>0</v>
       </c>
-      <c r="Q5" s="14"/>
-    </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="Q5" s="19"/>
+    </row>
+    <row r="6" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>7</v>
       </c>
@@ -897,19 +879,19 @@
       <c r="C6">
         <v>646</v>
       </c>
-      <c r="D6" s="7">
-        <v>0</v>
-      </c>
-      <c r="E6" s="7">
-        <v>0</v>
-      </c>
-      <c r="F6" s="7">
-        <v>0</v>
-      </c>
-      <c r="G6" s="8">
+      <c r="D6" s="6">
+        <v>0</v>
+      </c>
+      <c r="E6" s="6">
+        <v>0</v>
+      </c>
+      <c r="F6" s="6">
+        <v>0</v>
+      </c>
+      <c r="G6" s="7">
         <v>248</v>
       </c>
-      <c r="H6" s="12">
+      <c r="H6" s="11">
         <v>4</v>
       </c>
       <c r="I6">
@@ -936,9 +918,9 @@
       <c r="P6">
         <v>0</v>
       </c>
-      <c r="Q6" s="14"/>
-    </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="Q6" s="19"/>
+    </row>
+    <row r="7" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>9</v>
       </c>
@@ -948,19 +930,19 @@
       <c r="C7">
         <v>102</v>
       </c>
-      <c r="D7" s="7">
-        <v>0</v>
-      </c>
-      <c r="E7" s="7">
-        <v>0</v>
-      </c>
-      <c r="F7" s="7">
-        <v>0</v>
-      </c>
-      <c r="G7" s="8">
+      <c r="D7" s="6">
+        <v>0</v>
+      </c>
+      <c r="E7" s="6">
+        <v>0</v>
+      </c>
+      <c r="F7" s="6">
+        <v>0</v>
+      </c>
+      <c r="G7" s="7">
         <v>102</v>
       </c>
-      <c r="H7" s="12">
+      <c r="H7" s="11">
         <v>5</v>
       </c>
       <c r="I7">
@@ -987,9 +969,9 @@
       <c r="P7">
         <v>102</v>
       </c>
-      <c r="Q7" s="14"/>
-    </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="Q7" s="19"/>
+    </row>
+    <row r="8" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>2</v>
       </c>
@@ -999,19 +981,19 @@
       <c r="C8">
         <v>114</v>
       </c>
-      <c r="D8" s="7">
-        <v>0</v>
-      </c>
-      <c r="E8" s="7">
-        <v>0</v>
-      </c>
-      <c r="F8" s="7">
-        <v>0</v>
-      </c>
-      <c r="G8" s="8">
+      <c r="D8" s="6">
+        <v>0</v>
+      </c>
+      <c r="E8" s="6">
+        <v>0</v>
+      </c>
+      <c r="F8" s="6">
+        <v>0</v>
+      </c>
+      <c r="G8" s="7">
         <v>84</v>
       </c>
-      <c r="H8" s="12">
+      <c r="H8" s="11">
         <v>6</v>
       </c>
       <c r="I8">
@@ -1038,9 +1020,9 @@
       <c r="P8">
         <v>22</v>
       </c>
-      <c r="Q8" s="14"/>
-    </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="Q8" s="19"/>
+    </row>
+    <row r="9" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>16</v>
       </c>
@@ -1050,19 +1032,19 @@
       <c r="C9">
         <v>32</v>
       </c>
-      <c r="D9" s="9">
+      <c r="D9" s="8">
         <v>31</v>
       </c>
-      <c r="E9" s="7">
-        <v>0</v>
-      </c>
-      <c r="F9" s="7">
-        <v>0</v>
-      </c>
-      <c r="G9" s="8">
+      <c r="E9" s="6">
+        <v>0</v>
+      </c>
+      <c r="F9" s="6">
+        <v>0</v>
+      </c>
+      <c r="G9" s="7">
         <v>32</v>
       </c>
-      <c r="H9" s="12">
+      <c r="H9" s="11">
         <v>7</v>
       </c>
       <c r="I9">
@@ -1089,9 +1071,9 @@
       <c r="P9">
         <v>0</v>
       </c>
-      <c r="Q9" s="14"/>
-    </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="Q9" s="19"/>
+    </row>
+    <row r="10" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>0</v>
       </c>
@@ -1101,19 +1083,19 @@
       <c r="C10">
         <v>38</v>
       </c>
-      <c r="D10" s="7">
-        <v>0</v>
-      </c>
-      <c r="E10" s="7">
-        <v>0</v>
-      </c>
-      <c r="F10" s="7">
-        <v>0</v>
-      </c>
-      <c r="G10" s="8">
+      <c r="D10" s="6">
+        <v>0</v>
+      </c>
+      <c r="E10" s="6">
+        <v>0</v>
+      </c>
+      <c r="F10" s="6">
+        <v>0</v>
+      </c>
+      <c r="G10" s="7">
         <v>19</v>
       </c>
-      <c r="H10" s="12">
+      <c r="H10" s="11">
         <v>8</v>
       </c>
       <c r="I10">
@@ -1140,9 +1122,9 @@
       <c r="P10">
         <v>0</v>
       </c>
-      <c r="Q10" s="14"/>
-    </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="Q10" s="19"/>
+    </row>
+    <row r="11" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>24</v>
       </c>
@@ -1152,19 +1134,19 @@
       <c r="C11">
         <v>16</v>
       </c>
-      <c r="D11" s="7">
-        <v>0</v>
-      </c>
-      <c r="E11" s="7">
-        <v>0</v>
-      </c>
-      <c r="F11" s="7">
-        <v>0</v>
-      </c>
-      <c r="G11" s="8">
+      <c r="D11" s="6">
+        <v>0</v>
+      </c>
+      <c r="E11" s="6">
+        <v>0</v>
+      </c>
+      <c r="F11" s="6">
+        <v>0</v>
+      </c>
+      <c r="G11" s="7">
         <v>16</v>
       </c>
-      <c r="H11" s="12">
+      <c r="H11" s="11">
         <v>9</v>
       </c>
       <c r="I11">
@@ -1191,9 +1173,9 @@
       <c r="P11">
         <v>6</v>
       </c>
-      <c r="Q11" s="14"/>
-    </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="Q11" s="19"/>
+    </row>
+    <row r="12" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>22</v>
       </c>
@@ -1203,19 +1185,19 @@
       <c r="C12">
         <v>20</v>
       </c>
-      <c r="D12" s="7">
-        <v>0</v>
-      </c>
-      <c r="E12" s="7">
-        <v>0</v>
-      </c>
-      <c r="F12" s="7">
-        <v>0</v>
-      </c>
-      <c r="G12" s="8">
+      <c r="D12" s="6">
+        <v>0</v>
+      </c>
+      <c r="E12" s="6">
+        <v>0</v>
+      </c>
+      <c r="F12" s="6">
+        <v>0</v>
+      </c>
+      <c r="G12" s="7">
         <v>8</v>
       </c>
-      <c r="H12" s="12">
+      <c r="H12" s="11">
         <v>10</v>
       </c>
       <c r="I12">
@@ -1224,7 +1206,7 @@
       <c r="J12">
         <v>0</v>
       </c>
-      <c r="K12" s="6">
+      <c r="K12" s="5">
         <v>0</v>
       </c>
       <c r="L12">
@@ -1242,9 +1224,9 @@
       <c r="P12">
         <v>0</v>
       </c>
-      <c r="Q12" s="14"/>
-    </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="Q12" s="19"/>
+    </row>
+    <row r="13" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>26</v>
       </c>
@@ -1254,19 +1236,19 @@
       <c r="C13">
         <v>10</v>
       </c>
-      <c r="D13" s="7">
-        <v>0</v>
-      </c>
-      <c r="E13" s="7">
-        <v>0</v>
-      </c>
-      <c r="F13" s="7">
-        <v>0</v>
-      </c>
-      <c r="G13" s="8">
+      <c r="D13" s="6">
+        <v>0</v>
+      </c>
+      <c r="E13" s="6">
+        <v>0</v>
+      </c>
+      <c r="F13" s="6">
+        <v>0</v>
+      </c>
+      <c r="G13" s="7">
         <v>8</v>
       </c>
-      <c r="H13" s="12">
+      <c r="H13" s="11">
         <v>11</v>
       </c>
       <c r="I13">
@@ -1293,9 +1275,9 @@
       <c r="P13">
         <v>0</v>
       </c>
-      <c r="Q13" s="14"/>
-    </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="Q13" s="19"/>
+    </row>
+    <row r="14" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>28</v>
       </c>
@@ -1305,19 +1287,19 @@
       <c r="C14">
         <v>5</v>
       </c>
-      <c r="D14" s="7">
-        <v>0</v>
-      </c>
-      <c r="E14" s="7">
-        <v>0</v>
-      </c>
-      <c r="F14" s="7">
-        <v>0</v>
-      </c>
-      <c r="G14" s="8">
+      <c r="D14" s="6">
+        <v>0</v>
+      </c>
+      <c r="E14" s="6">
+        <v>0</v>
+      </c>
+      <c r="F14" s="6">
+        <v>0</v>
+      </c>
+      <c r="G14" s="7">
         <v>4</v>
       </c>
-      <c r="H14" s="12">
+      <c r="H14" s="11">
         <v>12</v>
       </c>
       <c r="I14">
@@ -1344,9 +1326,9 @@
       <c r="P14">
         <v>0</v>
       </c>
-      <c r="Q14" s="14"/>
-    </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="Q14" s="19"/>
+    </row>
+    <row r="15" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>13</v>
       </c>
@@ -1356,19 +1338,19 @@
       <c r="C15">
         <v>2</v>
       </c>
-      <c r="D15" s="7">
-        <v>0</v>
-      </c>
-      <c r="E15" s="7">
-        <v>0</v>
-      </c>
-      <c r="F15" s="7">
-        <v>0</v>
-      </c>
-      <c r="G15" s="8">
+      <c r="D15" s="6">
+        <v>0</v>
+      </c>
+      <c r="E15" s="6">
+        <v>0</v>
+      </c>
+      <c r="F15" s="6">
+        <v>0</v>
+      </c>
+      <c r="G15" s="7">
         <v>2</v>
       </c>
-      <c r="H15" s="12">
+      <c r="H15" s="11">
         <v>13</v>
       </c>
       <c r="I15">
@@ -1395,9 +1377,9 @@
       <c r="P15">
         <v>0</v>
       </c>
-      <c r="Q15" s="14"/>
-    </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="Q15" s="19"/>
+    </row>
+    <row r="16" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>23</v>
       </c>
@@ -1407,19 +1389,19 @@
       <c r="C16">
         <v>2</v>
       </c>
-      <c r="D16" s="7">
-        <v>0</v>
-      </c>
-      <c r="E16" s="7">
-        <v>0</v>
-      </c>
-      <c r="F16" s="7">
-        <v>0</v>
-      </c>
-      <c r="G16" s="8">
+      <c r="D16" s="6">
+        <v>0</v>
+      </c>
+      <c r="E16" s="6">
+        <v>0</v>
+      </c>
+      <c r="F16" s="6">
+        <v>0</v>
+      </c>
+      <c r="G16" s="7">
         <v>2</v>
       </c>
-      <c r="H16" s="12">
+      <c r="H16" s="11">
         <v>14</v>
       </c>
       <c r="I16">
@@ -1446,9 +1428,9 @@
       <c r="P16">
         <v>2</v>
       </c>
-      <c r="Q16" s="14"/>
-    </row>
-    <row r="17" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="Q16" s="19"/>
+    </row>
+    <row r="17" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>15</v>
       </c>
@@ -1458,19 +1440,19 @@
       <c r="C17">
         <v>235</v>
       </c>
-      <c r="D17" s="8">
+      <c r="D17" s="7">
         <v>235</v>
       </c>
-      <c r="E17" s="9">
+      <c r="E17" s="8">
         <v>231</v>
       </c>
-      <c r="F17" s="10">
+      <c r="F17" s="9">
         <v>200</v>
       </c>
-      <c r="G17" s="8">
+      <c r="G17" s="7">
         <v>235</v>
       </c>
-      <c r="H17" s="12">
+      <c r="H17" s="11">
         <v>15</v>
       </c>
       <c r="I17">
@@ -1497,9 +1479,9 @@
       <c r="P17">
         <v>0</v>
       </c>
-      <c r="Q17" s="14"/>
-    </row>
-    <row r="18" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="Q17" s="19"/>
+    </row>
+    <row r="18" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>11</v>
       </c>
@@ -1509,19 +1491,19 @@
       <c r="C18">
         <v>26</v>
       </c>
-      <c r="D18" s="8">
+      <c r="D18" s="7">
         <v>26</v>
       </c>
-      <c r="E18" s="8">
+      <c r="E18" s="7">
         <v>26</v>
       </c>
-      <c r="F18" s="9">
+      <c r="F18" s="8">
         <v>22</v>
       </c>
-      <c r="G18" s="8">
+      <c r="G18" s="7">
         <v>26</v>
       </c>
-      <c r="H18" s="12">
+      <c r="H18" s="11">
         <v>16</v>
       </c>
       <c r="I18">
@@ -1548,9 +1530,9 @@
       <c r="P18">
         <v>0</v>
       </c>
-      <c r="Q18" s="14"/>
-    </row>
-    <row r="19" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="Q18" s="19"/>
+    </row>
+    <row r="19" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>18</v>
       </c>
@@ -1560,19 +1542,19 @@
       <c r="C19">
         <v>23</v>
       </c>
-      <c r="D19" s="9">
+      <c r="D19" s="8">
         <v>20</v>
       </c>
-      <c r="E19" s="8">
+      <c r="E19" s="7">
         <v>23</v>
       </c>
-      <c r="F19" s="8">
+      <c r="F19" s="7">
         <v>23</v>
       </c>
-      <c r="G19" s="8">
+      <c r="G19" s="7">
         <v>23</v>
       </c>
-      <c r="H19" s="12">
+      <c r="H19" s="11">
         <v>17</v>
       </c>
       <c r="I19">
@@ -1599,9 +1581,9 @@
       <c r="P19">
         <v>0</v>
       </c>
-      <c r="Q19" s="14"/>
-    </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="Q19" s="19"/>
+    </row>
+    <row r="20" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>44</v>
       </c>
@@ -1611,19 +1593,19 @@
       <c r="C20">
         <v>1</v>
       </c>
-      <c r="D20" s="7">
-        <v>0</v>
-      </c>
-      <c r="E20" s="8">
-        <v>1</v>
-      </c>
-      <c r="F20" s="8">
-        <v>1</v>
-      </c>
-      <c r="G20" s="8">
-        <v>1</v>
-      </c>
-      <c r="H20" s="13">
+      <c r="D20" s="6">
+        <v>0</v>
+      </c>
+      <c r="E20" s="7">
+        <v>1</v>
+      </c>
+      <c r="F20" s="7">
+        <v>1</v>
+      </c>
+      <c r="G20" s="7">
+        <v>1</v>
+      </c>
+      <c r="H20" s="12">
         <v>18</v>
       </c>
       <c r="I20">
@@ -1650,9 +1632,9 @@
       <c r="P20">
         <v>0</v>
       </c>
-      <c r="Q20" s="14"/>
-    </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="Q20" s="19"/>
+    </row>
+    <row r="21" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>5</v>
       </c>
@@ -1662,19 +1644,19 @@
       <c r="C21">
         <v>469</v>
       </c>
-      <c r="D21" s="8">
+      <c r="D21" s="7">
         <v>469</v>
       </c>
-      <c r="E21" s="8">
+      <c r="E21" s="7">
         <v>469</v>
       </c>
-      <c r="F21" s="8">
+      <c r="F21" s="7">
         <v>469</v>
       </c>
-      <c r="G21" s="8">
+      <c r="G21" s="7">
         <v>469</v>
       </c>
-      <c r="H21" s="11">
+      <c r="H21" s="10">
         <v>19</v>
       </c>
       <c r="I21">
@@ -1701,9 +1683,9 @@
       <c r="P21">
         <v>0</v>
       </c>
-      <c r="Q21" s="14"/>
-    </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="Q21" s="19"/>
+    </row>
+    <row r="22" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>14</v>
       </c>
@@ -1713,19 +1695,19 @@
       <c r="C22">
         <v>89</v>
       </c>
-      <c r="D22" s="8">
+      <c r="D22" s="7">
         <v>89</v>
       </c>
-      <c r="E22" s="8">
+      <c r="E22" s="7">
         <v>89</v>
       </c>
-      <c r="F22" s="8">
+      <c r="F22" s="7">
         <v>89</v>
       </c>
-      <c r="G22" s="8">
+      <c r="G22" s="7">
         <v>89</v>
       </c>
-      <c r="H22" s="11">
+      <c r="H22" s="10">
         <v>20</v>
       </c>
       <c r="I22">
@@ -1752,9 +1734,9 @@
       <c r="P22">
         <v>0</v>
       </c>
-      <c r="Q22" s="14"/>
-    </row>
-    <row r="23" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="Q22" s="19"/>
+    </row>
+    <row r="23" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>19</v>
       </c>
@@ -1764,19 +1746,19 @@
       <c r="C23">
         <v>35</v>
       </c>
-      <c r="D23" s="8">
+      <c r="D23" s="7">
         <v>35</v>
       </c>
-      <c r="E23" s="8">
+      <c r="E23" s="7">
         <v>35</v>
       </c>
-      <c r="F23" s="8">
+      <c r="F23" s="7">
         <v>35</v>
       </c>
-      <c r="G23" s="8">
+      <c r="G23" s="7">
         <v>34</v>
       </c>
-      <c r="H23" s="11">
+      <c r="H23" s="10">
         <v>21</v>
       </c>
       <c r="I23">
@@ -1803,9 +1785,9 @@
       <c r="P23">
         <v>0</v>
       </c>
-      <c r="Q23" s="14"/>
-    </row>
-    <row r="24" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="Q23" s="19"/>
+    </row>
+    <row r="24" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>27</v>
       </c>
@@ -1815,19 +1797,19 @@
       <c r="C24">
         <v>19</v>
       </c>
-      <c r="D24" s="8">
+      <c r="D24" s="7">
         <v>19</v>
       </c>
-      <c r="E24" s="8">
+      <c r="E24" s="7">
         <v>19</v>
       </c>
-      <c r="F24" s="8">
+      <c r="F24" s="7">
         <v>19</v>
       </c>
-      <c r="G24" s="8">
+      <c r="G24" s="7">
         <v>19</v>
       </c>
-      <c r="H24" s="11">
+      <c r="H24" s="10">
         <v>22</v>
       </c>
       <c r="I24">
@@ -1854,9 +1836,9 @@
       <c r="P24">
         <v>0</v>
       </c>
-      <c r="Q24" s="14"/>
-    </row>
-    <row r="25" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="Q24" s="19"/>
+    </row>
+    <row r="25" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>25</v>
       </c>
@@ -1866,19 +1848,19 @@
       <c r="C25">
         <v>12</v>
       </c>
-      <c r="D25" s="8">
+      <c r="D25" s="7">
         <v>12</v>
       </c>
-      <c r="E25" s="8">
+      <c r="E25" s="7">
         <v>12</v>
       </c>
-      <c r="F25" s="8">
+      <c r="F25" s="7">
         <v>12</v>
       </c>
-      <c r="G25" s="8">
+      <c r="G25" s="7">
         <v>12</v>
       </c>
-      <c r="H25" s="11">
+      <c r="H25" s="10">
         <v>23</v>
       </c>
       <c r="I25">
@@ -1905,9 +1887,9 @@
       <c r="P25">
         <v>0</v>
       </c>
-      <c r="Q25" s="14"/>
-    </row>
-    <row r="26" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="Q25" s="19"/>
+    </row>
+    <row r="26" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>17</v>
       </c>
@@ -1917,19 +1899,19 @@
       <c r="C26">
         <v>4</v>
       </c>
-      <c r="D26" s="8">
+      <c r="D26" s="7">
         <v>4</v>
       </c>
-      <c r="E26" s="8">
+      <c r="E26" s="7">
         <v>4</v>
       </c>
-      <c r="F26" s="8">
+      <c r="F26" s="7">
         <v>4</v>
       </c>
-      <c r="G26" s="8">
+      <c r="G26" s="7">
         <v>4</v>
       </c>
-      <c r="H26" s="11">
+      <c r="H26" s="10">
         <v>24</v>
       </c>
       <c r="I26">
@@ -1956,9 +1938,9 @@
       <c r="P26">
         <v>0</v>
       </c>
-      <c r="Q26" s="14"/>
-    </row>
-    <row r="27" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="Q26" s="19"/>
+    </row>
+    <row r="27" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>44</v>
       </c>
@@ -1968,19 +1950,19 @@
       <c r="C27">
         <v>1</v>
       </c>
-      <c r="D27" s="8">
-        <v>1</v>
-      </c>
-      <c r="E27" s="8">
-        <v>1</v>
-      </c>
-      <c r="F27" s="8">
-        <v>1</v>
-      </c>
-      <c r="G27" s="8">
-        <v>1</v>
-      </c>
-      <c r="H27" s="11">
+      <c r="D27" s="7">
+        <v>1</v>
+      </c>
+      <c r="E27" s="7">
+        <v>1</v>
+      </c>
+      <c r="F27" s="7">
+        <v>1</v>
+      </c>
+      <c r="G27" s="7">
+        <v>1</v>
+      </c>
+      <c r="H27" s="10">
         <v>25</v>
       </c>
       <c r="I27">
@@ -2007,9 +1989,9 @@
       <c r="P27">
         <v>0</v>
       </c>
-      <c r="Q27" s="14"/>
-    </row>
-    <row r="28" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="Q27" s="19"/>
+    </row>
+    <row r="28" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>12</v>
       </c>
@@ -2019,19 +2001,19 @@
       <c r="C28">
         <v>13</v>
       </c>
-      <c r="D28" s="7">
-        <v>0</v>
-      </c>
-      <c r="E28" s="7">
-        <v>0</v>
-      </c>
-      <c r="F28" s="7">
-        <v>0</v>
-      </c>
-      <c r="G28" s="7">
-        <v>0</v>
-      </c>
-      <c r="H28" s="11">
+      <c r="D28" s="6">
+        <v>0</v>
+      </c>
+      <c r="E28" s="6">
+        <v>0</v>
+      </c>
+      <c r="F28" s="6">
+        <v>0</v>
+      </c>
+      <c r="G28" s="6">
+        <v>0</v>
+      </c>
+      <c r="H28" s="10">
         <v>26</v>
       </c>
       <c r="I28">
@@ -2058,9 +2040,9 @@
       <c r="P28">
         <v>0</v>
       </c>
-      <c r="Q28" s="14"/>
-    </row>
-    <row r="29" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="Q28" s="19"/>
+    </row>
+    <row r="29" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>21</v>
       </c>
@@ -2070,19 +2052,19 @@
       <c r="C29">
         <v>10</v>
       </c>
-      <c r="D29" s="7">
-        <v>0</v>
-      </c>
-      <c r="E29" s="7">
-        <v>0</v>
-      </c>
-      <c r="F29" s="7">
-        <v>0</v>
-      </c>
-      <c r="G29" s="7">
-        <v>0</v>
-      </c>
-      <c r="H29" s="11">
+      <c r="D29" s="6">
+        <v>0</v>
+      </c>
+      <c r="E29" s="6">
+        <v>0</v>
+      </c>
+      <c r="F29" s="6">
+        <v>0</v>
+      </c>
+      <c r="G29" s="6">
+        <v>0</v>
+      </c>
+      <c r="H29" s="10">
         <v>27</v>
       </c>
       <c r="I29">
@@ -2109,29 +2091,29 @@
       <c r="P29">
         <v>0</v>
       </c>
-      <c r="Q29" s="14"/>
-    </row>
-    <row r="30" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A30" s="3" t="s">
+      <c r="Q29" s="19"/>
+    </row>
+    <row r="30" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A30" s="20" t="s">
         <v>50</v>
       </c>
-      <c r="B30" s="3"/>
-      <c r="C30" s="3"/>
-      <c r="D30" s="3"/>
-      <c r="E30" s="3"/>
-      <c r="F30" s="3"/>
-      <c r="G30" s="3"/>
-      <c r="H30" s="3"/>
-      <c r="I30" s="3"/>
-      <c r="J30" s="3"/>
-      <c r="K30" s="3"/>
-      <c r="L30" s="3"/>
-      <c r="M30" s="3"/>
-      <c r="N30" s="3"/>
-      <c r="O30" s="3"/>
-      <c r="P30" s="3"/>
-    </row>
-    <row r="31" spans="1:17" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="B30" s="20"/>
+      <c r="C30" s="20"/>
+      <c r="D30" s="20"/>
+      <c r="E30" s="20"/>
+      <c r="F30" s="20"/>
+      <c r="G30" s="20"/>
+      <c r="H30" s="20"/>
+      <c r="I30" s="20"/>
+      <c r="J30" s="20"/>
+      <c r="K30" s="20"/>
+      <c r="L30" s="20"/>
+      <c r="M30" s="20"/>
+      <c r="N30" s="20"/>
+      <c r="O30" s="20"/>
+      <c r="P30" s="20"/>
+    </row>
+    <row r="31" spans="1:17" ht="32" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>30</v>
       </c>
@@ -2178,33 +2160,33 @@
       <c r="P31" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="Q31" s="14" t="s">
+      <c r="Q31" s="19" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="32" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>15</v>
       </c>
-      <c r="B32" s="11" t="s">
+      <c r="B32" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="C32" s="20">
+      <c r="C32">
         <v>235</v>
       </c>
-      <c r="D32" s="4">
+      <c r="D32" s="3">
         <v>235</v>
       </c>
-      <c r="E32" s="5">
+      <c r="E32" s="4">
         <v>231</v>
       </c>
       <c r="F32" s="2">
         <v>200</v>
       </c>
-      <c r="G32" s="4">
+      <c r="G32" s="3">
         <v>235</v>
       </c>
-      <c r="H32" s="12">
+      <c r="H32" s="11">
         <v>1</v>
       </c>
       <c r="I32">
@@ -2231,31 +2213,31 @@
       <c r="P32">
         <v>0</v>
       </c>
-      <c r="Q32" s="14"/>
-    </row>
-    <row r="33" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="Q32" s="19"/>
+    </row>
+    <row r="33" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>16</v>
       </c>
-      <c r="B33" s="11" t="s">
+      <c r="B33" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="C33" s="20">
+      <c r="C33">
         <v>32</v>
       </c>
-      <c r="D33" s="5">
+      <c r="D33" s="4">
         <v>31</v>
       </c>
-      <c r="E33" s="6">
-        <v>0</v>
-      </c>
-      <c r="F33" s="6">
-        <v>0</v>
-      </c>
-      <c r="G33" s="4">
+      <c r="E33" s="5">
+        <v>0</v>
+      </c>
+      <c r="F33" s="5">
+        <v>0</v>
+      </c>
+      <c r="G33" s="3">
         <v>32</v>
       </c>
-      <c r="H33" s="12">
+      <c r="H33" s="11">
         <v>2</v>
       </c>
       <c r="I33">
@@ -2282,31 +2264,31 @@
       <c r="P33">
         <v>0</v>
       </c>
-      <c r="Q33" s="14"/>
-    </row>
-    <row r="34" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="Q33" s="19"/>
+    </row>
+    <row r="34" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
         <v>11</v>
       </c>
-      <c r="B34" s="11" t="s">
+      <c r="B34" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="C34" s="20">
+      <c r="C34">
         <v>26</v>
       </c>
-      <c r="D34" s="4">
+      <c r="D34" s="3">
         <v>26</v>
       </c>
-      <c r="E34" s="4">
+      <c r="E34" s="3">
         <v>26</v>
       </c>
-      <c r="F34" s="5">
+      <c r="F34" s="4">
         <v>22</v>
       </c>
-      <c r="G34" s="4">
+      <c r="G34" s="3">
         <v>26</v>
       </c>
-      <c r="H34" s="12">
+      <c r="H34" s="11">
         <v>3</v>
       </c>
       <c r="I34">
@@ -2333,31 +2315,31 @@
       <c r="P34">
         <v>0</v>
       </c>
-      <c r="Q34" s="14"/>
-    </row>
-    <row r="35" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="Q34" s="19"/>
+    </row>
+    <row r="35" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
         <v>18</v>
       </c>
-      <c r="B35" s="11" t="s">
+      <c r="B35" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="C35" s="20">
+      <c r="C35">
         <v>23</v>
       </c>
-      <c r="D35" s="5">
+      <c r="D35" s="4">
         <v>20</v>
       </c>
-      <c r="E35" s="4">
+      <c r="E35" s="3">
         <v>23</v>
       </c>
-      <c r="F35" s="4">
+      <c r="F35" s="3">
         <v>23</v>
       </c>
-      <c r="G35" s="4">
+      <c r="G35" s="3">
         <v>23</v>
       </c>
-      <c r="H35" s="12">
+      <c r="H35" s="11">
         <v>4</v>
       </c>
       <c r="I35">
@@ -2384,31 +2366,31 @@
       <c r="P35">
         <v>0</v>
       </c>
-      <c r="Q35" s="14"/>
-    </row>
-    <row r="36" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="Q35" s="19"/>
+    </row>
+    <row r="36" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
         <v>44</v>
       </c>
-      <c r="B36" s="11" t="s">
+      <c r="B36" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="C36" s="20">
-        <v>1</v>
-      </c>
-      <c r="D36" s="6">
-        <v>0</v>
-      </c>
-      <c r="E36" s="4">
-        <v>1</v>
-      </c>
-      <c r="F36" s="4">
-        <v>1</v>
-      </c>
-      <c r="G36" s="4">
-        <v>1</v>
-      </c>
-      <c r="H36" s="13">
+      <c r="C36">
+        <v>1</v>
+      </c>
+      <c r="D36" s="5">
+        <v>0</v>
+      </c>
+      <c r="E36" s="3">
+        <v>1</v>
+      </c>
+      <c r="F36" s="3">
+        <v>1</v>
+      </c>
+      <c r="G36" s="3">
+        <v>1</v>
+      </c>
+      <c r="H36" s="12">
         <v>5</v>
       </c>
       <c r="I36">
@@ -2435,31 +2417,31 @@
       <c r="P36">
         <v>0</v>
       </c>
-      <c r="Q36" s="14"/>
-    </row>
-    <row r="37" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="Q36" s="19"/>
+    </row>
+    <row r="37" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
         <v>5</v>
       </c>
-      <c r="B37" s="11" t="s">
+      <c r="B37" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="C37" s="20">
+      <c r="C37">
         <v>469</v>
       </c>
-      <c r="D37" s="4">
+      <c r="D37" s="3">
         <v>469</v>
       </c>
-      <c r="E37" s="4">
+      <c r="E37" s="3">
         <v>469</v>
       </c>
-      <c r="F37" s="4">
+      <c r="F37" s="3">
         <v>469</v>
       </c>
-      <c r="G37" s="4">
+      <c r="G37" s="3">
         <v>469</v>
       </c>
-      <c r="H37" s="11">
+      <c r="H37" s="10">
         <v>6</v>
       </c>
       <c r="I37">
@@ -2486,31 +2468,31 @@
       <c r="P37">
         <v>0</v>
       </c>
-      <c r="Q37" s="14"/>
-    </row>
-    <row r="38" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="Q37" s="19"/>
+    </row>
+    <row r="38" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
         <v>14</v>
       </c>
-      <c r="B38" s="11" t="s">
+      <c r="B38" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="C38" s="20">
+      <c r="C38">
         <v>89</v>
       </c>
-      <c r="D38" s="4">
+      <c r="D38" s="3">
         <v>89</v>
       </c>
-      <c r="E38" s="4">
+      <c r="E38" s="3">
         <v>89</v>
       </c>
-      <c r="F38" s="4">
+      <c r="F38" s="3">
         <v>89</v>
       </c>
-      <c r="G38" s="4">
+      <c r="G38" s="3">
         <v>89</v>
       </c>
-      <c r="H38" s="11">
+      <c r="H38" s="10">
         <v>7</v>
       </c>
       <c r="I38">
@@ -2537,31 +2519,31 @@
       <c r="P38">
         <v>0</v>
       </c>
-      <c r="Q38" s="14"/>
-    </row>
-    <row r="39" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="Q38" s="19"/>
+    </row>
+    <row r="39" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
         <v>27</v>
       </c>
-      <c r="B39" s="11" t="s">
+      <c r="B39" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="C39" s="20">
+      <c r="C39">
         <v>19</v>
       </c>
-      <c r="D39" s="4">
+      <c r="D39" s="3">
         <v>19</v>
       </c>
-      <c r="E39" s="4">
+      <c r="E39" s="3">
         <v>19</v>
       </c>
-      <c r="F39" s="4">
+      <c r="F39" s="3">
         <v>19</v>
       </c>
-      <c r="G39" s="4">
+      <c r="G39" s="3">
         <v>19</v>
       </c>
-      <c r="H39" s="11">
+      <c r="H39" s="10">
         <v>8</v>
       </c>
       <c r="I39">
@@ -2588,31 +2570,31 @@
       <c r="P39">
         <v>0</v>
       </c>
-      <c r="Q39" s="14"/>
-    </row>
-    <row r="40" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="Q39" s="19"/>
+    </row>
+    <row r="40" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
         <v>25</v>
       </c>
-      <c r="B40" s="11" t="s">
+      <c r="B40" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="C40" s="20">
+      <c r="C40">
         <v>12</v>
       </c>
-      <c r="D40" s="4">
+      <c r="D40" s="3">
         <v>12</v>
       </c>
-      <c r="E40" s="4">
+      <c r="E40" s="3">
         <v>12</v>
       </c>
-      <c r="F40" s="4">
+      <c r="F40" s="3">
         <v>12</v>
       </c>
-      <c r="G40" s="4">
+      <c r="G40" s="3">
         <v>12</v>
       </c>
-      <c r="H40" s="11">
+      <c r="H40" s="10">
         <v>9</v>
       </c>
       <c r="I40">
@@ -2639,31 +2621,31 @@
       <c r="P40">
         <v>0</v>
       </c>
-      <c r="Q40" s="14"/>
-    </row>
-    <row r="41" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="Q40" s="19"/>
+    </row>
+    <row r="41" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
         <v>17</v>
       </c>
-      <c r="B41" s="11" t="s">
+      <c r="B41" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="C41" s="20">
+      <c r="C41">
         <v>4</v>
       </c>
-      <c r="D41" s="4">
+      <c r="D41" s="3">
         <v>4</v>
       </c>
-      <c r="E41" s="4">
+      <c r="E41" s="3">
         <v>4</v>
       </c>
-      <c r="F41" s="4">
+      <c r="F41" s="3">
         <v>4</v>
       </c>
-      <c r="G41" s="4">
+      <c r="G41" s="3">
         <v>4</v>
       </c>
-      <c r="H41" s="11">
+      <c r="H41" s="10">
         <v>10</v>
       </c>
       <c r="I41">
@@ -2690,31 +2672,31 @@
       <c r="P41">
         <v>0</v>
       </c>
-      <c r="Q41" s="14"/>
-    </row>
-    <row r="42" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="Q41" s="19"/>
+    </row>
+    <row r="42" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
         <v>44</v>
       </c>
-      <c r="B42" s="11" t="s">
+      <c r="B42" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="C42" s="20">
-        <v>1</v>
-      </c>
-      <c r="D42" s="4">
-        <v>1</v>
-      </c>
-      <c r="E42" s="4">
-        <v>1</v>
-      </c>
-      <c r="F42" s="4">
-        <v>1</v>
-      </c>
-      <c r="G42" s="4">
-        <v>1</v>
-      </c>
-      <c r="H42" s="11">
+      <c r="C42">
+        <v>1</v>
+      </c>
+      <c r="D42" s="3">
+        <v>1</v>
+      </c>
+      <c r="E42" s="3">
+        <v>1</v>
+      </c>
+      <c r="F42" s="3">
+        <v>1</v>
+      </c>
+      <c r="G42" s="3">
+        <v>1</v>
+      </c>
+      <c r="H42" s="10">
         <v>11</v>
       </c>
       <c r="I42">
@@ -2741,31 +2723,31 @@
       <c r="P42">
         <v>0</v>
       </c>
-      <c r="Q42" s="14"/>
-    </row>
-    <row r="43" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="Q42" s="19"/>
+    </row>
+    <row r="43" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
         <v>19</v>
       </c>
-      <c r="B43" s="11" t="s">
+      <c r="B43" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="C43" s="20">
+      <c r="C43">
         <v>35</v>
       </c>
-      <c r="D43" s="4">
+      <c r="D43" s="3">
         <v>35</v>
       </c>
-      <c r="E43" s="4">
+      <c r="E43" s="3">
         <v>35</v>
       </c>
-      <c r="F43" s="4">
+      <c r="F43" s="3">
         <v>35</v>
       </c>
-      <c r="G43" s="5">
+      <c r="G43" s="4">
         <v>34</v>
       </c>
-      <c r="H43" s="21">
+      <c r="H43" s="18">
         <v>12</v>
       </c>
       <c r="I43">
@@ -2792,9 +2774,9 @@
       <c r="P43">
         <v>0</v>
       </c>
-      <c r="Q43" s="14"/>
-    </row>
-    <row r="44" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="Q43" s="19"/>
+    </row>
+    <row r="44" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
         <v>4</v>
       </c>
@@ -2804,19 +2786,18 @@
       <c r="C44">
         <v>400</v>
       </c>
-      <c r="D44" s="20">
-        <v>0</v>
-      </c>
-      <c r="E44" s="20">
-        <v>0</v>
-      </c>
-      <c r="F44" s="20">
-        <v>0</v>
-      </c>
-      <c r="G44" s="20">
+      <c r="D44">
+        <v>0</v>
+      </c>
+      <c r="E44">
+        <v>0</v>
+      </c>
+      <c r="F44">
+        <v>0</v>
+      </c>
+      <c r="G44">
         <v>400</v>
       </c>
-      <c r="H44" s="20"/>
       <c r="I44">
         <v>0</v>
       </c>
@@ -2841,9 +2822,9 @@
       <c r="P44">
         <v>400</v>
       </c>
-      <c r="Q44" s="14"/>
-    </row>
-    <row r="45" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="Q44" s="19"/>
+    </row>
+    <row r="45" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
         <v>2</v>
       </c>
@@ -2853,19 +2834,18 @@
       <c r="C45">
         <v>114</v>
       </c>
-      <c r="D45" s="20">
-        <v>0</v>
-      </c>
-      <c r="E45" s="20">
-        <v>0</v>
-      </c>
-      <c r="F45" s="20">
-        <v>0</v>
-      </c>
-      <c r="G45" s="20">
+      <c r="D45">
+        <v>0</v>
+      </c>
+      <c r="E45">
+        <v>0</v>
+      </c>
+      <c r="F45">
+        <v>0</v>
+      </c>
+      <c r="G45">
         <v>84</v>
       </c>
-      <c r="H45" s="20"/>
       <c r="I45">
         <v>49</v>
       </c>
@@ -2890,9 +2870,9 @@
       <c r="P45">
         <v>22</v>
       </c>
-      <c r="Q45" s="14"/>
-    </row>
-    <row r="46" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="Q45" s="19"/>
+    </row>
+    <row r="46" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
         <v>13</v>
       </c>
@@ -2902,19 +2882,18 @@
       <c r="C46">
         <v>2</v>
       </c>
-      <c r="D46" s="20">
-        <v>0</v>
-      </c>
-      <c r="E46" s="20">
-        <v>0</v>
-      </c>
-      <c r="F46" s="20">
-        <v>0</v>
-      </c>
-      <c r="G46" s="20">
+      <c r="D46">
+        <v>0</v>
+      </c>
+      <c r="E46">
+        <v>0</v>
+      </c>
+      <c r="F46">
+        <v>0</v>
+      </c>
+      <c r="G46">
         <v>2</v>
       </c>
-      <c r="H46" s="20"/>
       <c r="I46">
         <v>2</v>
       </c>
@@ -2939,9 +2918,9 @@
       <c r="P46">
         <v>0</v>
       </c>
-      <c r="Q46" s="14"/>
-    </row>
-    <row r="47" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="Q46" s="19"/>
+    </row>
+    <row r="47" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
         <v>12</v>
       </c>
@@ -2951,19 +2930,18 @@
       <c r="C47">
         <v>13</v>
       </c>
-      <c r="D47" s="20">
-        <v>0</v>
-      </c>
-      <c r="E47" s="20">
-        <v>0</v>
-      </c>
-      <c r="F47" s="20">
-        <v>0</v>
-      </c>
-      <c r="G47" s="20">
-        <v>0</v>
-      </c>
-      <c r="H47" s="20"/>
+      <c r="D47">
+        <v>0</v>
+      </c>
+      <c r="E47">
+        <v>0</v>
+      </c>
+      <c r="F47">
+        <v>0</v>
+      </c>
+      <c r="G47">
+        <v>0</v>
+      </c>
       <c r="I47">
         <v>0</v>
       </c>
@@ -2988,9 +2966,9 @@
       <c r="P47">
         <v>0</v>
       </c>
-      <c r="Q47" s="14"/>
-    </row>
-    <row r="48" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="Q47" s="19"/>
+    </row>
+    <row r="48" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
         <v>10</v>
       </c>
@@ -3000,19 +2978,18 @@
       <c r="C48">
         <v>489</v>
       </c>
-      <c r="D48" s="20">
-        <v>0</v>
-      </c>
-      <c r="E48" s="20">
-        <v>0</v>
-      </c>
-      <c r="F48" s="20">
-        <v>0</v>
-      </c>
-      <c r="G48" s="20">
+      <c r="D48">
+        <v>0</v>
+      </c>
+      <c r="E48">
+        <v>0</v>
+      </c>
+      <c r="F48">
+        <v>0</v>
+      </c>
+      <c r="G48">
         <v>489</v>
       </c>
-      <c r="H48" s="20"/>
       <c r="I48">
         <v>40</v>
       </c>
@@ -3037,9 +3014,9 @@
       <c r="P48">
         <v>449</v>
       </c>
-      <c r="Q48" s="14"/>
-    </row>
-    <row r="49" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="Q48" s="19"/>
+    </row>
+    <row r="49" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
         <v>8</v>
       </c>
@@ -3049,19 +3026,18 @@
       <c r="C49">
         <v>627</v>
       </c>
-      <c r="D49" s="20">
-        <v>0</v>
-      </c>
-      <c r="E49" s="20">
-        <v>0</v>
-      </c>
-      <c r="F49" s="20">
-        <v>0</v>
-      </c>
-      <c r="G49" s="20">
+      <c r="D49">
+        <v>0</v>
+      </c>
+      <c r="E49">
+        <v>0</v>
+      </c>
+      <c r="F49">
+        <v>0</v>
+      </c>
+      <c r="G49">
         <v>262</v>
       </c>
-      <c r="H49" s="20"/>
       <c r="I49">
         <v>262</v>
       </c>
@@ -3086,9 +3062,9 @@
       <c r="P49">
         <v>0</v>
       </c>
-      <c r="Q49" s="14"/>
-    </row>
-    <row r="50" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="Q49" s="19"/>
+    </row>
+    <row r="50" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
         <v>7</v>
       </c>
@@ -3098,19 +3074,18 @@
       <c r="C50">
         <v>646</v>
       </c>
-      <c r="D50" s="20">
-        <v>0</v>
-      </c>
-      <c r="E50" s="20">
-        <v>0</v>
-      </c>
-      <c r="F50" s="20">
-        <v>0</v>
-      </c>
-      <c r="G50" s="20">
+      <c r="D50">
+        <v>0</v>
+      </c>
+      <c r="E50">
+        <v>0</v>
+      </c>
+      <c r="F50">
+        <v>0</v>
+      </c>
+      <c r="G50">
         <v>248</v>
       </c>
-      <c r="H50" s="20"/>
       <c r="I50">
         <v>248</v>
       </c>
@@ -3135,9 +3110,9 @@
       <c r="P50">
         <v>0</v>
       </c>
-      <c r="Q50" s="14"/>
-    </row>
-    <row r="51" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="Q50" s="19"/>
+    </row>
+    <row r="51" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
         <v>9</v>
       </c>
@@ -3147,19 +3122,18 @@
       <c r="C51">
         <v>102</v>
       </c>
-      <c r="D51" s="20">
-        <v>0</v>
-      </c>
-      <c r="E51" s="20">
-        <v>0</v>
-      </c>
-      <c r="F51" s="20">
-        <v>0</v>
-      </c>
-      <c r="G51" s="20">
+      <c r="D51">
+        <v>0</v>
+      </c>
+      <c r="E51">
+        <v>0</v>
+      </c>
+      <c r="F51">
+        <v>0</v>
+      </c>
+      <c r="G51">
         <v>102</v>
       </c>
-      <c r="H51" s="20"/>
       <c r="I51">
         <v>0</v>
       </c>
@@ -3184,9 +3158,9 @@
       <c r="P51">
         <v>102</v>
       </c>
-      <c r="Q51" s="14"/>
-    </row>
-    <row r="52" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="Q51" s="19"/>
+    </row>
+    <row r="52" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
         <v>0</v>
       </c>
@@ -3196,19 +3170,18 @@
       <c r="C52">
         <v>38</v>
       </c>
-      <c r="D52" s="20">
-        <v>0</v>
-      </c>
-      <c r="E52" s="20">
-        <v>0</v>
-      </c>
-      <c r="F52" s="20">
-        <v>0</v>
-      </c>
-      <c r="G52" s="20">
+      <c r="D52">
+        <v>0</v>
+      </c>
+      <c r="E52">
+        <v>0</v>
+      </c>
+      <c r="F52">
+        <v>0</v>
+      </c>
+      <c r="G52">
         <v>19</v>
       </c>
-      <c r="H52" s="20"/>
       <c r="I52">
         <v>19</v>
       </c>
@@ -3233,9 +3206,9 @@
       <c r="P52">
         <v>0</v>
       </c>
-      <c r="Q52" s="14"/>
-    </row>
-    <row r="53" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="Q52" s="19"/>
+    </row>
+    <row r="53" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
         <v>24</v>
       </c>
@@ -3245,19 +3218,18 @@
       <c r="C53">
         <v>16</v>
       </c>
-      <c r="D53" s="20">
-        <v>0</v>
-      </c>
-      <c r="E53" s="20">
-        <v>0</v>
-      </c>
-      <c r="F53" s="20">
-        <v>0</v>
-      </c>
-      <c r="G53" s="20">
+      <c r="D53">
+        <v>0</v>
+      </c>
+      <c r="E53">
+        <v>0</v>
+      </c>
+      <c r="F53">
+        <v>0</v>
+      </c>
+      <c r="G53">
         <v>16</v>
       </c>
-      <c r="H53" s="20"/>
       <c r="I53">
         <v>10</v>
       </c>
@@ -3282,9 +3254,9 @@
       <c r="P53">
         <v>6</v>
       </c>
-      <c r="Q53" s="14"/>
-    </row>
-    <row r="54" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="Q53" s="19"/>
+    </row>
+    <row r="54" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
         <v>22</v>
       </c>
@@ -3294,19 +3266,18 @@
       <c r="C54">
         <v>20</v>
       </c>
-      <c r="D54" s="20">
-        <v>0</v>
-      </c>
-      <c r="E54" s="20">
-        <v>0</v>
-      </c>
-      <c r="F54" s="20">
-        <v>0</v>
-      </c>
-      <c r="G54" s="20">
+      <c r="D54">
+        <v>0</v>
+      </c>
+      <c r="E54">
+        <v>0</v>
+      </c>
+      <c r="F54">
+        <v>0</v>
+      </c>
+      <c r="G54">
         <v>8</v>
       </c>
-      <c r="H54" s="20"/>
       <c r="I54">
         <v>8</v>
       </c>
@@ -3331,9 +3302,9 @@
       <c r="P54">
         <v>0</v>
       </c>
-      <c r="Q54" s="14"/>
-    </row>
-    <row r="55" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="Q54" s="19"/>
+    </row>
+    <row r="55" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
         <v>26</v>
       </c>
@@ -3343,19 +3314,18 @@
       <c r="C55">
         <v>10</v>
       </c>
-      <c r="D55" s="20">
-        <v>0</v>
-      </c>
-      <c r="E55" s="20">
-        <v>0</v>
-      </c>
-      <c r="F55" s="20">
-        <v>0</v>
-      </c>
-      <c r="G55" s="20">
+      <c r="D55">
+        <v>0</v>
+      </c>
+      <c r="E55">
+        <v>0</v>
+      </c>
+      <c r="F55">
+        <v>0</v>
+      </c>
+      <c r="G55">
         <v>8</v>
       </c>
-      <c r="H55" s="20"/>
       <c r="I55">
         <v>8</v>
       </c>
@@ -3380,9 +3350,9 @@
       <c r="P55">
         <v>0</v>
       </c>
-      <c r="Q55" s="14"/>
-    </row>
-    <row r="56" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="Q55" s="19"/>
+    </row>
+    <row r="56" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
         <v>28</v>
       </c>
@@ -3392,19 +3362,18 @@
       <c r="C56">
         <v>5</v>
       </c>
-      <c r="D56" s="20">
-        <v>0</v>
-      </c>
-      <c r="E56" s="20">
-        <v>0</v>
-      </c>
-      <c r="F56" s="20">
-        <v>0</v>
-      </c>
-      <c r="G56" s="20">
+      <c r="D56">
+        <v>0</v>
+      </c>
+      <c r="E56">
+        <v>0</v>
+      </c>
+      <c r="F56">
+        <v>0</v>
+      </c>
+      <c r="G56">
         <v>4</v>
       </c>
-      <c r="H56" s="20"/>
       <c r="I56">
         <v>4</v>
       </c>
@@ -3429,9 +3398,9 @@
       <c r="P56">
         <v>0</v>
       </c>
-      <c r="Q56" s="14"/>
-    </row>
-    <row r="57" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="Q56" s="19"/>
+    </row>
+    <row r="57" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
         <v>23</v>
       </c>
@@ -3441,19 +3410,18 @@
       <c r="C57">
         <v>2</v>
       </c>
-      <c r="D57" s="20">
-        <v>0</v>
-      </c>
-      <c r="E57" s="20">
-        <v>0</v>
-      </c>
-      <c r="F57" s="20">
-        <v>0</v>
-      </c>
-      <c r="G57" s="20">
+      <c r="D57">
+        <v>0</v>
+      </c>
+      <c r="E57">
+        <v>0</v>
+      </c>
+      <c r="F57">
+        <v>0</v>
+      </c>
+      <c r="G57">
         <v>2</v>
       </c>
-      <c r="H57" s="20"/>
       <c r="I57">
         <v>0</v>
       </c>
@@ -3478,9 +3446,9 @@
       <c r="P57">
         <v>2</v>
       </c>
-      <c r="Q57" s="14"/>
-    </row>
-    <row r="58" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="Q57" s="19"/>
+    </row>
+    <row r="58" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
         <v>21</v>
       </c>
@@ -3526,29 +3494,29 @@
       <c r="P58">
         <v>0</v>
       </c>
-      <c r="Q58" s="14"/>
-    </row>
-    <row r="59" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A59" s="3" t="s">
+      <c r="Q58" s="19"/>
+    </row>
+    <row r="59" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A59" s="20" t="s">
         <v>51</v>
       </c>
-      <c r="B59" s="3"/>
-      <c r="C59" s="3"/>
-      <c r="D59" s="3"/>
-      <c r="E59" s="3"/>
-      <c r="F59" s="3"/>
-      <c r="G59" s="3"/>
-      <c r="H59" s="3"/>
-      <c r="I59" s="3"/>
-      <c r="J59" s="3"/>
-      <c r="K59" s="3"/>
-      <c r="L59" s="3"/>
-      <c r="M59" s="3"/>
-      <c r="N59" s="3"/>
-      <c r="O59" s="3"/>
-      <c r="P59" s="3"/>
-    </row>
-    <row r="60" spans="1:17" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="B59" s="20"/>
+      <c r="C59" s="20"/>
+      <c r="D59" s="20"/>
+      <c r="E59" s="20"/>
+      <c r="F59" s="20"/>
+      <c r="G59" s="20"/>
+      <c r="H59" s="20"/>
+      <c r="I59" s="20"/>
+      <c r="J59" s="20"/>
+      <c r="K59" s="20"/>
+      <c r="L59" s="20"/>
+      <c r="M59" s="20"/>
+      <c r="N59" s="20"/>
+      <c r="O59" s="20"/>
+      <c r="P59" s="20"/>
+    </row>
+    <row r="60" spans="1:17" ht="32" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
         <v>30</v>
       </c>
@@ -3595,33 +3563,33 @@
       <c r="P60" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="Q60" s="14" t="s">
+      <c r="Q60" s="19" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="61" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
         <v>15</v>
       </c>
-      <c r="B61" s="11" t="s">
+      <c r="B61" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="C61" s="20">
+      <c r="C61">
         <v>235</v>
       </c>
-      <c r="D61" s="4">
+      <c r="D61" s="3">
         <v>235</v>
       </c>
-      <c r="E61" s="5">
+      <c r="E61" s="4">
         <v>231</v>
       </c>
       <c r="F61" s="2">
         <v>200</v>
       </c>
-      <c r="G61" s="4">
+      <c r="G61" s="3">
         <v>235</v>
       </c>
-      <c r="H61" s="12">
+      <c r="H61" s="11">
         <v>1</v>
       </c>
       <c r="I61">
@@ -3648,31 +3616,31 @@
       <c r="P61">
         <v>0</v>
       </c>
-      <c r="Q61" s="14"/>
-    </row>
-    <row r="62" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="Q61" s="19"/>
+    </row>
+    <row r="62" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
         <v>16</v>
       </c>
-      <c r="B62" s="11" t="s">
+      <c r="B62" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="C62" s="20">
+      <c r="C62">
         <v>32</v>
       </c>
-      <c r="D62" s="5">
+      <c r="D62" s="4">
         <v>31</v>
       </c>
-      <c r="E62" s="6">
-        <v>0</v>
-      </c>
-      <c r="F62" s="6">
-        <v>0</v>
-      </c>
-      <c r="G62" s="4">
+      <c r="E62" s="5">
+        <v>0</v>
+      </c>
+      <c r="F62" s="5">
+        <v>0</v>
+      </c>
+      <c r="G62" s="3">
         <v>32</v>
       </c>
-      <c r="H62" s="12">
+      <c r="H62" s="11">
         <v>2</v>
       </c>
       <c r="I62">
@@ -3699,31 +3667,31 @@
       <c r="P62">
         <v>0</v>
       </c>
-      <c r="Q62" s="14"/>
-    </row>
-    <row r="63" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="Q62" s="19"/>
+    </row>
+    <row r="63" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
         <v>11</v>
       </c>
-      <c r="B63" s="11" t="s">
+      <c r="B63" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="C63" s="20">
+      <c r="C63">
         <v>26</v>
       </c>
-      <c r="D63" s="4">
+      <c r="D63" s="3">
         <v>26</v>
       </c>
-      <c r="E63" s="4">
+      <c r="E63" s="3">
         <v>26</v>
       </c>
-      <c r="F63" s="5">
+      <c r="F63" s="4">
         <v>22</v>
       </c>
-      <c r="G63" s="4">
+      <c r="G63" s="3">
         <v>26</v>
       </c>
-      <c r="H63" s="12">
+      <c r="H63" s="11">
         <v>3</v>
       </c>
       <c r="I63">
@@ -3750,31 +3718,31 @@
       <c r="P63">
         <v>0</v>
       </c>
-      <c r="Q63" s="14"/>
-    </row>
-    <row r="64" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="Q63" s="19"/>
+    </row>
+    <row r="64" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
         <v>18</v>
       </c>
-      <c r="B64" s="11" t="s">
+      <c r="B64" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="C64" s="20">
+      <c r="C64">
         <v>23</v>
       </c>
-      <c r="D64" s="5">
+      <c r="D64" s="4">
         <v>20</v>
       </c>
-      <c r="E64" s="4">
+      <c r="E64" s="3">
         <v>23</v>
       </c>
-      <c r="F64" s="4">
+      <c r="F64" s="3">
         <v>23</v>
       </c>
-      <c r="G64" s="4">
+      <c r="G64" s="3">
         <v>23</v>
       </c>
-      <c r="H64" s="12">
+      <c r="H64" s="11">
         <v>4</v>
       </c>
       <c r="I64">
@@ -3801,31 +3769,31 @@
       <c r="P64">
         <v>0</v>
       </c>
-      <c r="Q64" s="14"/>
-    </row>
-    <row r="65" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="Q64" s="19"/>
+    </row>
+    <row r="65" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
         <v>44</v>
       </c>
-      <c r="B65" s="11" t="s">
+      <c r="B65" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="C65" s="20">
-        <v>1</v>
-      </c>
-      <c r="D65" s="6">
-        <v>0</v>
-      </c>
-      <c r="E65" s="4">
-        <v>1</v>
-      </c>
-      <c r="F65" s="4">
-        <v>1</v>
-      </c>
-      <c r="G65" s="4">
-        <v>1</v>
-      </c>
-      <c r="H65" s="13">
+      <c r="C65">
+        <v>1</v>
+      </c>
+      <c r="D65" s="5">
+        <v>0</v>
+      </c>
+      <c r="E65" s="3">
+        <v>1</v>
+      </c>
+      <c r="F65" s="3">
+        <v>1</v>
+      </c>
+      <c r="G65" s="3">
+        <v>1</v>
+      </c>
+      <c r="H65" s="12">
         <v>5</v>
       </c>
       <c r="I65">
@@ -3852,31 +3820,31 @@
       <c r="P65">
         <v>0</v>
       </c>
-      <c r="Q65" s="14"/>
-    </row>
-    <row r="66" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="Q65" s="19"/>
+    </row>
+    <row r="66" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
         <v>5</v>
       </c>
-      <c r="B66" s="11" t="s">
+      <c r="B66" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="C66" s="20">
+      <c r="C66">
         <v>469</v>
       </c>
-      <c r="D66" s="4">
+      <c r="D66" s="3">
         <v>469</v>
       </c>
-      <c r="E66" s="4">
+      <c r="E66" s="3">
         <v>469</v>
       </c>
-      <c r="F66" s="4">
+      <c r="F66" s="3">
         <v>469</v>
       </c>
-      <c r="G66" s="4">
+      <c r="G66" s="3">
         <v>469</v>
       </c>
-      <c r="H66" s="11">
+      <c r="H66" s="10">
         <v>6</v>
       </c>
       <c r="I66">
@@ -3903,31 +3871,31 @@
       <c r="P66">
         <v>0</v>
       </c>
-      <c r="Q66" s="14"/>
-    </row>
-    <row r="67" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="Q66" s="19"/>
+    </row>
+    <row r="67" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
         <v>14</v>
       </c>
-      <c r="B67" s="11" t="s">
+      <c r="B67" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="C67" s="20">
+      <c r="C67">
         <v>89</v>
       </c>
-      <c r="D67" s="4">
+      <c r="D67" s="3">
         <v>89</v>
       </c>
-      <c r="E67" s="4">
+      <c r="E67" s="3">
         <v>89</v>
       </c>
-      <c r="F67" s="4">
+      <c r="F67" s="3">
         <v>89</v>
       </c>
-      <c r="G67" s="4">
+      <c r="G67" s="3">
         <v>89</v>
       </c>
-      <c r="H67" s="11">
+      <c r="H67" s="10">
         <v>7</v>
       </c>
       <c r="I67">
@@ -3954,31 +3922,31 @@
       <c r="P67">
         <v>0</v>
       </c>
-      <c r="Q67" s="14"/>
-    </row>
-    <row r="68" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="Q67" s="19"/>
+    </row>
+    <row r="68" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
         <v>27</v>
       </c>
-      <c r="B68" s="11" t="s">
+      <c r="B68" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="C68" s="20">
+      <c r="C68">
         <v>19</v>
       </c>
-      <c r="D68" s="4">
+      <c r="D68" s="3">
         <v>19</v>
       </c>
-      <c r="E68" s="4">
+      <c r="E68" s="3">
         <v>19</v>
       </c>
-      <c r="F68" s="4">
+      <c r="F68" s="3">
         <v>19</v>
       </c>
-      <c r="G68" s="4">
+      <c r="G68" s="3">
         <v>19</v>
       </c>
-      <c r="H68" s="11">
+      <c r="H68" s="10">
         <v>8</v>
       </c>
       <c r="I68">
@@ -4005,31 +3973,31 @@
       <c r="P68">
         <v>0</v>
       </c>
-      <c r="Q68" s="14"/>
-    </row>
-    <row r="69" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="Q68" s="19"/>
+    </row>
+    <row r="69" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
         <v>25</v>
       </c>
-      <c r="B69" s="11" t="s">
+      <c r="B69" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="C69" s="20">
+      <c r="C69">
         <v>12</v>
       </c>
-      <c r="D69" s="4">
+      <c r="D69" s="3">
         <v>12</v>
       </c>
-      <c r="E69" s="4">
+      <c r="E69" s="3">
         <v>12</v>
       </c>
-      <c r="F69" s="4">
+      <c r="F69" s="3">
         <v>12</v>
       </c>
-      <c r="G69" s="4">
+      <c r="G69" s="3">
         <v>12</v>
       </c>
-      <c r="H69" s="11">
+      <c r="H69" s="10">
         <v>9</v>
       </c>
       <c r="I69">
@@ -4056,31 +4024,31 @@
       <c r="P69">
         <v>0</v>
       </c>
-      <c r="Q69" s="14"/>
-    </row>
-    <row r="70" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="Q69" s="19"/>
+    </row>
+    <row r="70" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
         <v>17</v>
       </c>
-      <c r="B70" s="11" t="s">
+      <c r="B70" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="C70" s="20">
+      <c r="C70">
         <v>4</v>
       </c>
-      <c r="D70" s="4">
+      <c r="D70" s="3">
         <v>4</v>
       </c>
-      <c r="E70" s="4">
+      <c r="E70" s="3">
         <v>4</v>
       </c>
-      <c r="F70" s="4">
+      <c r="F70" s="3">
         <v>4</v>
       </c>
-      <c r="G70" s="4">
+      <c r="G70" s="3">
         <v>4</v>
       </c>
-      <c r="H70" s="11">
+      <c r="H70" s="10">
         <v>10</v>
       </c>
       <c r="I70">
@@ -4107,31 +4075,31 @@
       <c r="P70">
         <v>0</v>
       </c>
-      <c r="Q70" s="14"/>
-    </row>
-    <row r="71" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="Q70" s="19"/>
+    </row>
+    <row r="71" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
         <v>44</v>
       </c>
-      <c r="B71" s="11" t="s">
+      <c r="B71" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="C71" s="20">
-        <v>1</v>
-      </c>
-      <c r="D71" s="4">
-        <v>1</v>
-      </c>
-      <c r="E71" s="4">
-        <v>1</v>
-      </c>
-      <c r="F71" s="4">
-        <v>1</v>
-      </c>
-      <c r="G71" s="4">
-        <v>1</v>
-      </c>
-      <c r="H71" s="11">
+      <c r="C71">
+        <v>1</v>
+      </c>
+      <c r="D71" s="3">
+        <v>1</v>
+      </c>
+      <c r="E71" s="3">
+        <v>1</v>
+      </c>
+      <c r="F71" s="3">
+        <v>1</v>
+      </c>
+      <c r="G71" s="3">
+        <v>1</v>
+      </c>
+      <c r="H71" s="10">
         <v>11</v>
       </c>
       <c r="I71">
@@ -4158,31 +4126,31 @@
       <c r="P71">
         <v>0</v>
       </c>
-      <c r="Q71" s="14"/>
-    </row>
-    <row r="72" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="Q71" s="19"/>
+    </row>
+    <row r="72" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
         <v>19</v>
       </c>
-      <c r="B72" s="11" t="s">
+      <c r="B72" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="C72" s="20">
+      <c r="C72">
         <v>35</v>
       </c>
-      <c r="D72" s="4">
+      <c r="D72" s="3">
         <v>35</v>
       </c>
-      <c r="E72" s="4">
+      <c r="E72" s="3">
         <v>35</v>
       </c>
-      <c r="F72" s="4">
+      <c r="F72" s="3">
         <v>35</v>
       </c>
-      <c r="G72" s="5">
+      <c r="G72" s="4">
         <v>34</v>
       </c>
-      <c r="H72" s="21">
+      <c r="H72" s="18">
         <v>12</v>
       </c>
       <c r="I72">
@@ -4209,9 +4177,9 @@
       <c r="P72">
         <v>0</v>
       </c>
-      <c r="Q72" s="14"/>
-    </row>
-    <row r="73" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="Q72" s="19"/>
+    </row>
+    <row r="73" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
         <v>4</v>
       </c>
@@ -4221,19 +4189,18 @@
       <c r="C73">
         <v>400</v>
       </c>
-      <c r="D73" s="20">
-        <v>0</v>
-      </c>
-      <c r="E73" s="20">
-        <v>0</v>
-      </c>
-      <c r="F73" s="20">
-        <v>0</v>
-      </c>
-      <c r="G73" s="20">
+      <c r="D73">
+        <v>0</v>
+      </c>
+      <c r="E73">
+        <v>0</v>
+      </c>
+      <c r="F73">
+        <v>0</v>
+      </c>
+      <c r="G73">
         <v>400</v>
       </c>
-      <c r="H73" s="20"/>
       <c r="I73">
         <v>0</v>
       </c>
@@ -4258,9 +4225,9 @@
       <c r="P73">
         <v>400</v>
       </c>
-      <c r="Q73" s="14"/>
-    </row>
-    <row r="74" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="Q73" s="19"/>
+    </row>
+    <row r="74" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
         <v>2</v>
       </c>
@@ -4270,19 +4237,18 @@
       <c r="C74">
         <v>114</v>
       </c>
-      <c r="D74" s="20">
-        <v>0</v>
-      </c>
-      <c r="E74" s="20">
-        <v>0</v>
-      </c>
-      <c r="F74" s="20">
-        <v>0</v>
-      </c>
-      <c r="G74" s="20">
+      <c r="D74">
+        <v>0</v>
+      </c>
+      <c r="E74">
+        <v>0</v>
+      </c>
+      <c r="F74">
+        <v>0</v>
+      </c>
+      <c r="G74">
         <v>84</v>
       </c>
-      <c r="H74" s="20"/>
       <c r="I74">
         <v>49</v>
       </c>
@@ -4307,9 +4273,9 @@
       <c r="P74">
         <v>22</v>
       </c>
-      <c r="Q74" s="14"/>
-    </row>
-    <row r="75" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="Q74" s="19"/>
+    </row>
+    <row r="75" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A75" t="s">
         <v>13</v>
       </c>
@@ -4319,19 +4285,18 @@
       <c r="C75">
         <v>2</v>
       </c>
-      <c r="D75" s="20">
-        <v>0</v>
-      </c>
-      <c r="E75" s="20">
-        <v>0</v>
-      </c>
-      <c r="F75" s="20">
-        <v>0</v>
-      </c>
-      <c r="G75" s="20">
+      <c r="D75">
+        <v>0</v>
+      </c>
+      <c r="E75">
+        <v>0</v>
+      </c>
+      <c r="F75">
+        <v>0</v>
+      </c>
+      <c r="G75">
         <v>2</v>
       </c>
-      <c r="H75" s="20"/>
       <c r="I75">
         <v>2</v>
       </c>
@@ -4356,9 +4321,9 @@
       <c r="P75">
         <v>0</v>
       </c>
-      <c r="Q75" s="14"/>
-    </row>
-    <row r="76" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="Q75" s="19"/>
+    </row>
+    <row r="76" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A76" t="s">
         <v>12</v>
       </c>
@@ -4368,19 +4333,18 @@
       <c r="C76">
         <v>13</v>
       </c>
-      <c r="D76" s="20">
-        <v>0</v>
-      </c>
-      <c r="E76" s="20">
-        <v>0</v>
-      </c>
-      <c r="F76" s="20">
-        <v>0</v>
-      </c>
-      <c r="G76" s="20">
-        <v>0</v>
-      </c>
-      <c r="H76" s="20"/>
+      <c r="D76">
+        <v>0</v>
+      </c>
+      <c r="E76">
+        <v>0</v>
+      </c>
+      <c r="F76">
+        <v>0</v>
+      </c>
+      <c r="G76">
+        <v>0</v>
+      </c>
       <c r="I76">
         <v>0</v>
       </c>
@@ -4405,9 +4369,9 @@
       <c r="P76">
         <v>0</v>
       </c>
-      <c r="Q76" s="14"/>
-    </row>
-    <row r="77" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="Q76" s="19"/>
+    </row>
+    <row r="77" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A77" t="s">
         <v>10</v>
       </c>
@@ -4417,19 +4381,18 @@
       <c r="C77">
         <v>489</v>
       </c>
-      <c r="D77" s="20">
-        <v>0</v>
-      </c>
-      <c r="E77" s="20">
-        <v>0</v>
-      </c>
-      <c r="F77" s="20">
-        <v>0</v>
-      </c>
-      <c r="G77" s="20">
+      <c r="D77">
+        <v>0</v>
+      </c>
+      <c r="E77">
+        <v>0</v>
+      </c>
+      <c r="F77">
+        <v>0</v>
+      </c>
+      <c r="G77">
         <v>489</v>
       </c>
-      <c r="H77" s="20"/>
       <c r="I77">
         <v>40</v>
       </c>
@@ -4454,9 +4417,9 @@
       <c r="P77">
         <v>449</v>
       </c>
-      <c r="Q77" s="14"/>
-    </row>
-    <row r="78" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="Q77" s="19"/>
+    </row>
+    <row r="78" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A78" t="s">
         <v>8</v>
       </c>
@@ -4466,19 +4429,18 @@
       <c r="C78">
         <v>627</v>
       </c>
-      <c r="D78" s="20">
-        <v>0</v>
-      </c>
-      <c r="E78" s="20">
-        <v>0</v>
-      </c>
-      <c r="F78" s="20">
-        <v>0</v>
-      </c>
-      <c r="G78" s="20">
+      <c r="D78">
+        <v>0</v>
+      </c>
+      <c r="E78">
+        <v>0</v>
+      </c>
+      <c r="F78">
+        <v>0</v>
+      </c>
+      <c r="G78">
         <v>262</v>
       </c>
-      <c r="H78" s="20"/>
       <c r="I78">
         <v>262</v>
       </c>
@@ -4503,9 +4465,9 @@
       <c r="P78">
         <v>0</v>
       </c>
-      <c r="Q78" s="14"/>
-    </row>
-    <row r="79" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="Q78" s="19"/>
+    </row>
+    <row r="79" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A79" t="s">
         <v>7</v>
       </c>
@@ -4515,19 +4477,18 @@
       <c r="C79">
         <v>646</v>
       </c>
-      <c r="D79" s="20">
-        <v>0</v>
-      </c>
-      <c r="E79" s="20">
-        <v>0</v>
-      </c>
-      <c r="F79" s="20">
-        <v>0</v>
-      </c>
-      <c r="G79" s="20">
+      <c r="D79">
+        <v>0</v>
+      </c>
+      <c r="E79">
+        <v>0</v>
+      </c>
+      <c r="F79">
+        <v>0</v>
+      </c>
+      <c r="G79">
         <v>248</v>
       </c>
-      <c r="H79" s="20"/>
       <c r="I79">
         <v>248</v>
       </c>
@@ -4552,9 +4513,9 @@
       <c r="P79">
         <v>0</v>
       </c>
-      <c r="Q79" s="14"/>
-    </row>
-    <row r="80" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="Q79" s="19"/>
+    </row>
+    <row r="80" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A80" t="s">
         <v>9</v>
       </c>
@@ -4564,19 +4525,18 @@
       <c r="C80">
         <v>102</v>
       </c>
-      <c r="D80" s="20">
-        <v>0</v>
-      </c>
-      <c r="E80" s="20">
-        <v>0</v>
-      </c>
-      <c r="F80" s="20">
-        <v>0</v>
-      </c>
-      <c r="G80" s="20">
+      <c r="D80">
+        <v>0</v>
+      </c>
+      <c r="E80">
+        <v>0</v>
+      </c>
+      <c r="F80">
+        <v>0</v>
+      </c>
+      <c r="G80">
         <v>102</v>
       </c>
-      <c r="H80" s="20"/>
       <c r="I80">
         <v>0</v>
       </c>
@@ -4601,9 +4561,9 @@
       <c r="P80">
         <v>102</v>
       </c>
-      <c r="Q80" s="14"/>
-    </row>
-    <row r="81" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="Q80" s="19"/>
+    </row>
+    <row r="81" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A81" t="s">
         <v>0</v>
       </c>
@@ -4613,19 +4573,18 @@
       <c r="C81">
         <v>38</v>
       </c>
-      <c r="D81" s="20">
-        <v>0</v>
-      </c>
-      <c r="E81" s="20">
-        <v>0</v>
-      </c>
-      <c r="F81" s="20">
-        <v>0</v>
-      </c>
-      <c r="G81" s="20">
+      <c r="D81">
+        <v>0</v>
+      </c>
+      <c r="E81">
+        <v>0</v>
+      </c>
+      <c r="F81">
+        <v>0</v>
+      </c>
+      <c r="G81">
         <v>19</v>
       </c>
-      <c r="H81" s="20"/>
       <c r="I81">
         <v>19</v>
       </c>
@@ -4650,9 +4609,9 @@
       <c r="P81">
         <v>0</v>
       </c>
-      <c r="Q81" s="14"/>
-    </row>
-    <row r="82" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="Q81" s="19"/>
+    </row>
+    <row r="82" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A82" t="s">
         <v>24</v>
       </c>
@@ -4662,19 +4621,18 @@
       <c r="C82">
         <v>16</v>
       </c>
-      <c r="D82" s="20">
-        <v>0</v>
-      </c>
-      <c r="E82" s="20">
-        <v>0</v>
-      </c>
-      <c r="F82" s="20">
-        <v>0</v>
-      </c>
-      <c r="G82" s="20">
+      <c r="D82">
+        <v>0</v>
+      </c>
+      <c r="E82">
+        <v>0</v>
+      </c>
+      <c r="F82">
+        <v>0</v>
+      </c>
+      <c r="G82">
         <v>16</v>
       </c>
-      <c r="H82" s="20"/>
       <c r="I82">
         <v>10</v>
       </c>
@@ -4699,9 +4657,9 @@
       <c r="P82">
         <v>6</v>
       </c>
-      <c r="Q82" s="14"/>
-    </row>
-    <row r="83" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="Q82" s="19"/>
+    </row>
+    <row r="83" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A83" t="s">
         <v>22</v>
       </c>
@@ -4711,19 +4669,18 @@
       <c r="C83">
         <v>20</v>
       </c>
-      <c r="D83" s="20">
-        <v>0</v>
-      </c>
-      <c r="E83" s="20">
-        <v>0</v>
-      </c>
-      <c r="F83" s="20">
-        <v>0</v>
-      </c>
-      <c r="G83" s="20">
+      <c r="D83">
+        <v>0</v>
+      </c>
+      <c r="E83">
+        <v>0</v>
+      </c>
+      <c r="F83">
+        <v>0</v>
+      </c>
+      <c r="G83">
         <v>8</v>
       </c>
-      <c r="H83" s="20"/>
       <c r="I83">
         <v>8</v>
       </c>
@@ -4748,9 +4705,9 @@
       <c r="P83">
         <v>0</v>
       </c>
-      <c r="Q83" s="14"/>
-    </row>
-    <row r="84" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="Q83" s="19"/>
+    </row>
+    <row r="84" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A84" t="s">
         <v>26</v>
       </c>
@@ -4760,19 +4717,18 @@
       <c r="C84">
         <v>10</v>
       </c>
-      <c r="D84" s="20">
-        <v>0</v>
-      </c>
-      <c r="E84" s="20">
-        <v>0</v>
-      </c>
-      <c r="F84" s="20">
-        <v>0</v>
-      </c>
-      <c r="G84" s="20">
+      <c r="D84">
+        <v>0</v>
+      </c>
+      <c r="E84">
+        <v>0</v>
+      </c>
+      <c r="F84">
+        <v>0</v>
+      </c>
+      <c r="G84">
         <v>8</v>
       </c>
-      <c r="H84" s="20"/>
       <c r="I84">
         <v>8</v>
       </c>
@@ -4797,9 +4753,9 @@
       <c r="P84">
         <v>0</v>
       </c>
-      <c r="Q84" s="14"/>
-    </row>
-    <row r="85" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="Q84" s="19"/>
+    </row>
+    <row r="85" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A85" t="s">
         <v>28</v>
       </c>
@@ -4809,19 +4765,18 @@
       <c r="C85">
         <v>5</v>
       </c>
-      <c r="D85" s="20">
-        <v>0</v>
-      </c>
-      <c r="E85" s="20">
-        <v>0</v>
-      </c>
-      <c r="F85" s="20">
-        <v>0</v>
-      </c>
-      <c r="G85" s="20">
+      <c r="D85">
+        <v>0</v>
+      </c>
+      <c r="E85">
+        <v>0</v>
+      </c>
+      <c r="F85">
+        <v>0</v>
+      </c>
+      <c r="G85">
         <v>4</v>
       </c>
-      <c r="H85" s="20"/>
       <c r="I85">
         <v>4</v>
       </c>
@@ -4846,9 +4801,9 @@
       <c r="P85">
         <v>0</v>
       </c>
-      <c r="Q85" s="14"/>
-    </row>
-    <row r="86" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="Q85" s="19"/>
+    </row>
+    <row r="86" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A86" t="s">
         <v>23</v>
       </c>
@@ -4858,19 +4813,18 @@
       <c r="C86">
         <v>2</v>
       </c>
-      <c r="D86" s="20">
-        <v>0</v>
-      </c>
-      <c r="E86" s="20">
-        <v>0</v>
-      </c>
-      <c r="F86" s="20">
-        <v>0</v>
-      </c>
-      <c r="G86" s="20">
+      <c r="D86">
+        <v>0</v>
+      </c>
+      <c r="E86">
+        <v>0</v>
+      </c>
+      <c r="F86">
+        <v>0</v>
+      </c>
+      <c r="G86">
         <v>2</v>
       </c>
-      <c r="H86" s="20"/>
       <c r="I86">
         <v>0</v>
       </c>
@@ -4895,9 +4849,9 @@
       <c r="P86">
         <v>2</v>
       </c>
-      <c r="Q86" s="14"/>
-    </row>
-    <row r="87" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="Q86" s="19"/>
+    </row>
+    <row r="87" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A87" t="s">
         <v>21</v>
       </c>
@@ -4943,7 +4897,7 @@
       <c r="P87">
         <v>0</v>
       </c>
-      <c r="Q87" s="14"/>
+      <c r="Q87" s="19"/>
     </row>
   </sheetData>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A32:P43">
